--- a/income&expenses.xlsx
+++ b/income&expenses.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phanuruj Sotthidat\Documents\Fodder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF02674-1EB9-44D6-8476-54068F74FF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Receipt" sheetId="2" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA16261-5392-4F1F-83CE-48797CF29CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Receipt" sheetId="2" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -27,91 +28,114 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Income</t>
-  </si>
-  <si>
-    <t>Outcome</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Income</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Outcome</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SCB Easy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2056-09-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7-Eleven</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Sand Dollar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82.98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-11-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HARBOR LANE CAFE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31.39</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="1" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Account1" displayName="Account1" ref="A1:D3" totalsRowCount="1">
-  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Income" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Outcome" totalsRowFunction="count"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,52 +422,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <f>SUBTOTAL(109,Account1[Income])</f>
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f>SUBTOTAL(103,Account1[Outcome])</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D7"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="H17" sqref="H17"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="12" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="22.285156" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.710938" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.285156" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="1">
+        <x:v>45050</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>355</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="1">
+        <x:v>45050</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>358</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="1">
+        <x:v>45049</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="1">
+        <x:v>45049</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="1">
+        <x:v>45048</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="1">
+        <x:v>45048</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="n">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="A8" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8">
+      <x:c r="A9" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8">
+      <x:c r="A10" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8">
+      <x:c r="A11" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8">
+      <x:c r="A12" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:8">
+      <x:c r="A13" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/income&expenses.xlsx
+++ b/income&expenses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phanuruj Sotthidat\Documents\Fodder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiss\OneDrive\Documents\UiPath\Fodder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49857A3A-109C-45AC-BD12-40DEE52D8C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4CF4D4-5C20-43CF-BE49-3D22573FB923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -45,18 +45,6 @@
   </si>
   <si>
     <t>Outcome</t>
-  </si>
-  <si>
-    <t>SCB Easy</t>
-  </si>
-  <si>
-    <t>7-Eleven</t>
-  </si>
-  <si>
-    <t>The Sand Dollar</t>
-  </si>
-  <si>
-    <t>HARBOR LANE CAFE</t>
   </si>
 </sst>
 </file>
@@ -91,10 +79,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,105 +412,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>45050</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>45050</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>45049</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>45049</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>45048</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>45048</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>57242</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>43629</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1">
-        <v>82.98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>43789</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1">
-        <v>31.39</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/income&expenses.xlsx
+++ b/income&expenses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiss\OneDrive\Documents\UiPath\Fodder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phanuruj Sotthidat\Documents\Fodder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4CF4D4-5C20-43CF-BE49-3D22573FB923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFC3D1C-1EA9-4BC9-8A8C-79D301A60AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Receipt" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,6 +45,18 @@
   </si>
   <si>
     <t>Outcome</t>
+  </si>
+  <si>
+    <t>SCB Easy</t>
+  </si>
+  <si>
+    <t>7-Eleven</t>
+  </si>
+  <si>
+    <t>The Sand Dollar</t>
+  </si>
+  <si>
+    <t>HARBOR LANE CAFE</t>
   </si>
 </sst>
 </file>
@@ -79,9 +91,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,6 +425,182 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45059</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45058</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45058</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45058</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>340.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45058</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>320.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45058</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45055</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>57242</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>43629</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>82.98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>43789</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>31.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/income&expenses.xlsx
+++ b/income&expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phanuruj Sotthidat\Documents\Fodder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFC3D1C-1EA9-4BC9-8A8C-79D301A60AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E7A25E-DA92-43FB-943F-CADF7CB950F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>HARBOR LANE CAFE</t>
+  </si>
+  <si>
+    <t>Max Valu</t>
+  </si>
+  <si>
+    <t>makro</t>
   </si>
 </sst>
 </file>
@@ -397,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,35 +576,79 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>57242</v>
+        <v>45054</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>32</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>43629</v>
+        <v>57242</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>82.98</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
+        <v>43629</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>82.98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>43789</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="1">
         <v>31.39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>57248</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>163.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>42290</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>42290</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
